--- a/medicine/Enfance/Dina_Kathelyn/Dina_Kathelyn.xlsx
+++ b/medicine/Enfance/Dina_Kathelyn/Dina_Kathelyn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dina Kathelyn, née en 1934 à Uccle (région de Bruxelles-Capitale), est une romancière, autrice de littérature jeunesse, illustratrice, peintre et coloriste belge. Elle utilise parfois le pseudonyme de Catherine Haegen ou celui de Dina-K. Tourneur.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dina Kathelyn naît en 1934 à Uccle, une commune bruxelloise[1]. 
-Après des études artistiques, Dina Kathelyn devient illustratrice au sein d'une agence de publicité avant de poursuivre son activité en tant que travailleur indépendant[2]. À ce titre et alors qu'elle travaille sur des livres pour la Croix-Rouge, elle rencontre le directeur des éditions jeunesse de Casterman qui lui propose de collaborer avec la maison d'édition. C'est de là que commence au milieu des années 1970 la série Marmouset[3]. Le premier volume de la série, Le Pied de Marmouset, sort en 1975[4]. Les 27 volumes de la série se vendent à plus de 2 millions d'exemplaires en français[5] et connaissent plusieurs traductions. Marmouset devient ainsi Petertje en néerlandais[6], Yumurcak en turc[7], Stefan en allemand[8] ou encore Caspar en anglais[9].
-À partir des années 2000, Dina Kathelyn travaille comme coloriste sur plusieurs séries de bandes dessinées parmi lesquelles Alix, Murena ou Destins[2],[10].
-En 2015, elle publie son premier roman : Le Poison silence aux Éditions Chloé des Lys et en 2019, son second : Passe le train[11] aux Éditions Academia.
-En 2018, elle se présente aux élections communales à Forest sur la liste du parti Ecolo[12] et obtient 290 voix[13].
-En 2020, elle se charge de la mise en couleur des deux tomes de la série historique dessinée par Paul Teng intitulée : Le Pape et le peintre publiée aux éditions BD Must[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dina Kathelyn naît en 1934 à Uccle, une commune bruxelloise. 
+Après des études artistiques, Dina Kathelyn devient illustratrice au sein d'une agence de publicité avant de poursuivre son activité en tant que travailleur indépendant. À ce titre et alors qu'elle travaille sur des livres pour la Croix-Rouge, elle rencontre le directeur des éditions jeunesse de Casterman qui lui propose de collaborer avec la maison d'édition. C'est de là que commence au milieu des années 1970 la série Marmouset. Le premier volume de la série, Le Pied de Marmouset, sort en 1975. Les 27 volumes de la série se vendent à plus de 2 millions d'exemplaires en français et connaissent plusieurs traductions. Marmouset devient ainsi Petertje en néerlandais, Yumurcak en turc, Stefan en allemand ou encore Caspar en anglais.
+À partir des années 2000, Dina Kathelyn travaille comme coloriste sur plusieurs séries de bandes dessinées parmi lesquelles Alix, Murena ou Destins,.
+En 2015, elle publie son premier roman : Le Poison silence aux Éditions Chloé des Lys et en 2019, son second : Passe le train aux Éditions Academia.
+En 2018, elle se présente aux élections communales à Forest sur la liste du parti Ecolo et obtient 290 voix.
+En 2020, elle se charge de la mise en couleur des deux tomes de la série historique dessinée par Paul Teng intitulée : Le Pape et le peintre publiée aux éditions BD Must.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dina Kathelyn prend le nom de Tourneur et le nom de plume Dina-K. Tourneur lors de son mariage, dont sont issus trois enfants[2]. Elle vit à Forest[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dina Kathelyn prend le nom de Tourneur et le nom de plume Dina-K. Tourneur lors de son mariage, dont sont issus trois enfants. Elle vit à Forest.
 </t>
         </is>
       </c>
@@ -580,17 +596,131 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Marmouset
-En 2015, les éditions Casterman éditent un coffret intitulé Bonjour, Marmouset qui comprend deux histoires déjà parues : Le Pied de Marmouset et La Main de Marmouset[16].
-Romans
-Le Poison silence, Éditions Chloé des Lys, 2015, 180 p. (ISBN 978-2-87459-872-2, présentation en ligne)
-Passe le train, Éditions Academia, 2019, 154 p. (ISBN 978-2-8061-0445-8, présentation en ligne)
-Nouvelles
-Joyeux anniversaire !, Lamiroy, coll. « opuscule », 2023 (ISBN 978-2-87595-828-0, présentation en ligne)
-Albums de bande dessinée
-Une enquête de Léonard de Vinci
-Les 7 crimes de Rome, Éditions du Rocher, Monaco, 9 mai 2019Scénario : Guillaume Prévost - Dessin : Robert Paquet - Couleurs : Dina Kathelyn -  (ISBN 978-2-268-09670-4)</t>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Marmouset</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, les éditions Casterman éditent un coffret intitulé Bonjour, Marmouset qui comprend deux histoires déjà parues : Le Pied de Marmouset et La Main de Marmouset.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dina_Kathelyn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dina_Kathelyn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Poison silence, Éditions Chloé des Lys, 2015, 180 p. (ISBN 978-2-87459-872-2, présentation en ligne)
+Passe le train, Éditions Academia, 2019, 154 p. (ISBN 978-2-8061-0445-8, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dina_Kathelyn</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dina_Kathelyn</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Joyeux anniversaire !, Lamiroy, coll. « opuscule », 2023 (ISBN 978-2-87595-828-0, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dina_Kathelyn</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dina_Kathelyn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Une enquête de Léonard de Vinci</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les 7 crimes de Rome, Éditions du Rocher, Monaco, 9 mai 2019Scénario : Guillaume Prévost - Dessin : Robert Paquet - Couleurs : Dina Kathelyn -  (ISBN 978-2-268-09670-4)</t>
         </is>
       </c>
     </row>
